--- a/server/pricelist.xlsx
+++ b/server/pricelist.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -22,40 +22,28 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Автомойка</t>
-  </si>
-  <si>
-    <t>Новое</t>
-  </si>
-  <si>
-    <t>Новоя хуйня</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>Услуга</t>
-  </si>
-  <si>
-    <t>Типа да</t>
-  </si>
-  <si>
-    <t>5ee66bb1edb83a0a3cd86f1d</t>
-  </si>
-  <si>
-    <t>Типа</t>
-  </si>
-  <si>
-    <t>Типа новый тип</t>
-  </si>
-  <si>
-    <t>Новый тип</t>
+    <t>Полировка легковая</t>
+  </si>
+  <si>
+    <t>Полировка</t>
+  </si>
+  <si>
+    <t>Полировка кроссовер</t>
+  </si>
+  <si>
+    <t>Полировка джип</t>
+  </si>
+  <si>
+    <t>Легкая химчистка легковая</t>
+  </si>
+  <si>
+    <t>Химчистка</t>
+  </si>
+  <si>
+    <t>Глубокая химчистка легковая</t>
+  </si>
+  <si>
+    <t>Легкая химчистка кроссовер</t>
   </si>
 </sst>
 </file>
@@ -432,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -452,103 +440,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>123</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5">
-        <v>444</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>33333</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>134</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
